--- a/2018/top_impact-20180928/top_impact-20180928.xlsx
+++ b/2018/top_impact-20180928/top_impact-20180928.xlsx
@@ -14,16 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="861">
   <si>
+    <t>provider</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
-    <t>provider</t>
+    <t>name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>name</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>namestate</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
   <si>
     <t>headline</t>
@@ -32,289 +41,280 @@
     <t>Hardest hit health systems</t>
   </si>
   <si>
+    <t>360180</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic, Ohio</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
     <t>Academic medical centers in urban areas will experience the deepest cuts from the CMS' proposed site-neutral pay policy for doctor visits, according to a new study.</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>namestate</t>
+    <t>-$24,678,432</t>
+  </si>
+  <si>
+    <t>050441</t>
+  </si>
+  <si>
+    <t>Stanford Health Care</t>
+  </si>
+  <si>
+    <t>Calif.</t>
+  </si>
+  <si>
+    <t>Stanford Health Care, Calif.</t>
+  </si>
+  <si>
+    <t>-$12,917,108</t>
+  </si>
+  <si>
+    <t>140010</t>
+  </si>
+  <si>
+    <t>Evanston Hospital</t>
+  </si>
+  <si>
+    <t>Ill.</t>
+  </si>
+  <si>
+    <t>Evanston Hospital, Ill.</t>
+  </si>
+  <si>
+    <t>-$11,760,914</t>
   </si>
   <si>
     <t>footnote</t>
   </si>
   <si>
+    <t>230046</t>
+  </si>
+  <si>
+    <t>University Of Michigan Health System</t>
+  </si>
+  <si>
+    <t>Mich.</t>
+  </si>
+  <si>
+    <t>University Of Michigan Health System, Mich.</t>
+  </si>
+  <si>
+    <t>-$10,853,925</t>
+  </si>
+  <si>
+    <t>050573</t>
+  </si>
+  <si>
+    <t>Eisenhower Medical Center</t>
+  </si>
+  <si>
+    <t>Eisenhower Medical Center, Calif.</t>
+  </si>
+  <si>
+    <t>-$10,136,581</t>
+  </si>
+  <si>
+    <t>440049</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
-    <t>difference</t>
+    <t>Methodist Healthcare Memphis Hospitals</t>
   </si>
   <si>
     <t>Dobson DaVanzo &amp; Associates, LLC</t>
   </si>
   <si>
+    <t>Tenn.</t>
+  </si>
+  <si>
+    <t>Methodist Healthcare Memphis Hospitals, Tenn.</t>
+  </si>
+  <si>
+    <t>-$9,309,876</t>
+  </si>
+  <si>
+    <t>460009</t>
+  </si>
+  <si>
+    <t>University Of Utah Hospitals And Clinics</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>University Of Utah Hospitals And Clinics, Utah</t>
+  </si>
+  <si>
+    <t>-$7,895,120</t>
+  </si>
+  <si>
+    <t>230053</t>
+  </si>
+  <si>
+    <t>Henry Ford Hospital</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>Henry Ford Hospital, Mich.</t>
+  </si>
+  <si>
     <t>Modern Healthcare</t>
   </si>
   <si>
-    <t>360180</t>
+    <t>-$7,844,522</t>
+  </si>
+  <si>
+    <t>070022</t>
+  </si>
+  <si>
+    <t>Yale-New Haven Hospital</t>
+  </si>
+  <si>
+    <t>Conn.</t>
+  </si>
+  <si>
+    <t>Yale-New Haven Hospital, Conn.</t>
+  </si>
+  <si>
+    <t>-$7,708,480</t>
+  </si>
+  <si>
+    <t>340014</t>
+  </si>
+  <si>
+    <t>Novant Health Forsyth Medical Center</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>Novant Health Forsyth Medical Center, N.C.</t>
+  </si>
+  <si>
+    <t>-$7,682,420</t>
+  </si>
+  <si>
+    <t>190036</t>
+  </si>
+  <si>
+    <t>Ochsner Medical Center</t>
+  </si>
+  <si>
+    <t>La.</t>
+  </si>
+  <si>
+    <t>Ochsner Medical Center, La.</t>
+  </si>
+  <si>
+    <t>-$7,317,551</t>
+  </si>
+  <si>
+    <t>490009</t>
+  </si>
+  <si>
+    <t>University Of Virginia Medical Center</t>
+  </si>
+  <si>
+    <t>Va.</t>
+  </si>
+  <si>
+    <t>University Of Virginia Medical Center, Va.</t>
+  </si>
+  <si>
+    <t>-$6,873,783</t>
   </si>
   <si>
     <t>hdr_state</t>
   </si>
   <si>
-    <t>Cleveland Clinic</t>
+    <t>450102</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Cleveland Clinic, Ohio</t>
+    <t>Christus Mother Frances Hospital</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Christus Mother Frances Hospital, Texas</t>
+  </si>
+  <si>
+    <t>-$6,756,068</t>
+  </si>
+  <si>
+    <t>520098</t>
+  </si>
+  <si>
+    <t>University Of Wi Hospitals &amp; Clinics Authority</t>
+  </si>
+  <si>
+    <t>Wis.</t>
+  </si>
+  <si>
+    <t>University Of Wi Hospitals &amp; Clinics Authority, Wis.</t>
+  </si>
+  <si>
+    <t>-$6,192,919</t>
   </si>
   <si>
     <t>hdr_something</t>
   </si>
   <si>
+    <t>360059</t>
+  </si>
+  <si>
     <t>Something</t>
   </si>
   <si>
-    <t>-$24,678,432</t>
-  </si>
-  <si>
-    <t>050441</t>
-  </si>
-  <si>
-    <t>Stanford Health Care</t>
-  </si>
-  <si>
-    <t>Calif.</t>
+    <t>Metrohealth System</t>
+  </si>
+  <si>
+    <t>Metrohealth System, Ohio</t>
+  </si>
+  <si>
+    <t>-$5,986,910</t>
+  </si>
+  <si>
+    <t>470003</t>
+  </si>
+  <si>
+    <t>University Of Vermont Medical Center</t>
+  </si>
+  <si>
+    <t>Vt.</t>
+  </si>
+  <si>
+    <t>University Of Vermont Medical Center, Vt.</t>
+  </si>
+  <si>
+    <t>-$5,972,056</t>
+  </si>
+  <si>
+    <t>030014</t>
   </si>
   <si>
     <t>hdr_another_thing</t>
   </si>
   <si>
+    <t>John C. Lincoln North Mountain Hospital</t>
+  </si>
+  <si>
     <t>Another Thing</t>
-  </si>
-  <si>
-    <t>Stanford Health Care, Calif.</t>
-  </si>
-  <si>
-    <t>-$12,917,108</t>
-  </si>
-  <si>
-    <t>140010</t>
-  </si>
-  <si>
-    <t>Evanston Hospital</t>
-  </si>
-  <si>
-    <t>Ill.</t>
-  </si>
-  <si>
-    <t>Evanston Hospital, Ill.</t>
-  </si>
-  <si>
-    <t>-$11,760,914</t>
-  </si>
-  <si>
-    <t>230046</t>
-  </si>
-  <si>
-    <t>University Of Michigan Health System</t>
-  </si>
-  <si>
-    <t>Mich.</t>
-  </si>
-  <si>
-    <t>University Of Michigan Health System, Mich.</t>
-  </si>
-  <si>
-    <t>-$10,853,925</t>
-  </si>
-  <si>
-    <t>050573</t>
-  </si>
-  <si>
-    <t>Eisenhower Medical Center</t>
-  </si>
-  <si>
-    <t>Eisenhower Medical Center, Calif.</t>
-  </si>
-  <si>
-    <t>-$10,136,581</t>
-  </si>
-  <si>
-    <t>440049</t>
-  </si>
-  <si>
-    <t>Methodist Healthcare Memphis Hospitals</t>
-  </si>
-  <si>
-    <t>Tenn.</t>
-  </si>
-  <si>
-    <t>Methodist Healthcare Memphis Hospitals, Tenn.</t>
-  </si>
-  <si>
-    <t>-$9,309,876</t>
-  </si>
-  <si>
-    <t>460009</t>
-  </si>
-  <si>
-    <t>University Of Utah Hospitals And Clinics</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>University Of Utah Hospitals And Clinics, Utah</t>
-  </si>
-  <si>
-    <t>-$7,895,120</t>
-  </si>
-  <si>
-    <t>230053</t>
-  </si>
-  <si>
-    <t>Henry Ford Hospital</t>
-  </si>
-  <si>
-    <t>Henry Ford Hospital, Mich.</t>
-  </si>
-  <si>
-    <t>-$7,844,522</t>
-  </si>
-  <si>
-    <t>070022</t>
-  </si>
-  <si>
-    <t>Yale-New Haven Hospital</t>
-  </si>
-  <si>
-    <t>Conn.</t>
-  </si>
-  <si>
-    <t>Yale-New Haven Hospital, Conn.</t>
-  </si>
-  <si>
-    <t>-$7,708,480</t>
-  </si>
-  <si>
-    <t>340014</t>
-  </si>
-  <si>
-    <t>Novant Health Forsyth Medical Center</t>
-  </si>
-  <si>
-    <t>N.C.</t>
-  </si>
-  <si>
-    <t>Novant Health Forsyth Medical Center, N.C.</t>
-  </si>
-  <si>
-    <t>-$7,682,420</t>
-  </si>
-  <si>
-    <t>190036</t>
-  </si>
-  <si>
-    <t>Ochsner Medical Center</t>
-  </si>
-  <si>
-    <t>La.</t>
-  </si>
-  <si>
-    <t>Ochsner Medical Center, La.</t>
-  </si>
-  <si>
-    <t>-$7,317,551</t>
-  </si>
-  <si>
-    <t>490009</t>
-  </si>
-  <si>
-    <t>University Of Virginia Medical Center</t>
-  </si>
-  <si>
-    <t>Va.</t>
-  </si>
-  <si>
-    <t>University Of Virginia Medical Center, Va.</t>
-  </si>
-  <si>
-    <t>-$6,873,783</t>
-  </si>
-  <si>
-    <t>450102</t>
-  </si>
-  <si>
-    <t>Christus Mother Frances Hospital</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Christus Mother Frances Hospital, Texas</t>
-  </si>
-  <si>
-    <t>-$6,756,068</t>
-  </si>
-  <si>
-    <t>520098</t>
-  </si>
-  <si>
-    <t>University Of Wi Hospitals &amp; Clinics Authority</t>
-  </si>
-  <si>
-    <t>Wis.</t>
-  </si>
-  <si>
-    <t>University Of Wi Hospitals &amp; Clinics Authority, Wis.</t>
-  </si>
-  <si>
-    <t>-$6,192,919</t>
-  </si>
-  <si>
-    <t>360059</t>
-  </si>
-  <si>
-    <t>Metrohealth System</t>
-  </si>
-  <si>
-    <t>Metrohealth System, Ohio</t>
-  </si>
-  <si>
-    <t>-$5,986,910</t>
-  </si>
-  <si>
-    <t>470003</t>
-  </si>
-  <si>
-    <t>University Of Vermont Medical Center</t>
-  </si>
-  <si>
-    <t>Vt.</t>
-  </si>
-  <si>
-    <t>University Of Vermont Medical Center, Vt.</t>
-  </si>
-  <si>
-    <t>-$5,972,056</t>
-  </si>
-  <si>
-    <t>030014</t>
-  </si>
-  <si>
-    <t>John C. Lincoln North Mountain Hospital</t>
   </si>
   <si>
     <t>Ariz.</t>
@@ -2609,14 +2609,11 @@
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="14.0"/>
     </font>
     <font>
@@ -2626,6 +2623,9 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2669,36 +2669,36 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2735,598 +2735,598 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="A9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3348,3421 +3348,3421 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="6">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="12" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="11" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="11" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="12" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="11" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="11" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>186</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>200</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>222</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>252</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>257</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>261</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>273</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>277</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>281</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>289</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>293</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>301</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="10" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
         <v>306</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>310</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>319</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="10" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>349</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>353</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>357</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>361</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="10" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>365</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>369</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>373</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>378</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>387</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>391</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="10" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="10" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>408</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="10" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="9" t="s">
         <v>412</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>416</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="10" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>420</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="10" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="9" t="s">
         <v>424</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="9" t="s">
         <v>428</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="9" t="s">
         <v>432</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>436</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="9" t="s">
         <v>440</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="9" t="s">
         <v>445</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D99" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>453</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>457</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>461</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>465</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>469</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="10" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>473</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" s="11" t="s">
+      <c r="C106" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="10" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>481</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="10" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="10" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="10" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="10" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>497</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D111" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="10" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="11" t="s">
+      <c r="C112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>505</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="10" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>509</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D114" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="10" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="10" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>517</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>522</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>527</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="10" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="11" t="s">
+      <c r="C120" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>539</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>543</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="10" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>547</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>551</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>555</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D125" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="10" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>559</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D126" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="10" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>563</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E127" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="11" t="s">
+      <c r="C128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="11" t="s">
+      <c r="C129" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>575</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>579</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D131" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>583</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>587</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D134" s="11" t="s">
+      <c r="C134" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>595</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="10" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>599</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D136" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="10" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>603</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="10" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="9" t="s">
         <v>607</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="10" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="9" t="s">
         <v>611</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="10" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="9" t="s">
         <v>615</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="10" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="9" t="s">
         <v>619</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="10" t="s">
+      <c r="A142" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="9" t="s">
         <v>623</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="10" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="9" t="s">
         <v>627</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="9" t="s">
         <v>632</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="10" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="9" t="s">
         <v>640</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D146" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="10" t="s">
+      <c r="A147" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="9" t="s">
         <v>644</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="9" t="s">
         <v>648</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D148" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="9" t="s">
         <v>652</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D149" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="9" t="s">
         <v>656</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D151" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="9" t="s">
         <v>664</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D152" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="10" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="9" t="s">
         <v>668</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="10" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="9" t="s">
         <v>672</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="10" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="9" t="s">
         <v>677</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="10" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="9" t="s">
         <v>681</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="10" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>685</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D157" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="10" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="10" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="10" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="11" t="s">
+      <c r="C160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="10" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>701</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="10" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>706</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D162" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D162" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="10" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>710</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="10" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>714</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D164" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="10" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" s="11" t="s">
+      <c r="C165" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D165" s="10" t="s">
         <v>719</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="10" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="9" t="s">
         <v>722</v>
       </c>
       <c r="C166" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D167" s="11" t="s">
+      <c r="C167" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="10" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="9" t="s">
         <v>730</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D168" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D168" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="10" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>738</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D170" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D170" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="10" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="10" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="9" t="s">
         <v>746</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="10" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="10" t="s">
+      <c r="A173" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>750</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D173" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E173" s="10" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="9" t="s">
         <v>754</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="10" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="9" t="s">
         <v>758</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="10" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="9" t="s">
         <v>762</v>
       </c>
       <c r="C176" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="10" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="9" t="s">
         <v>766</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="10" t="s">
         <v>767</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="10" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="9" t="s">
         <v>770</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D178" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="E178" s="11" t="s">
+      <c r="E178" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="10" t="s">
         <v>775</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="10" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="10" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="9" t="s">
         <v>782</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D181" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="10" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="9" t="s">
         <v>786</v>
       </c>
       <c r="C182" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="10" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="9" t="s">
         <v>790</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D183" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D183" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E183" s="10" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="9" t="s">
         <v>794</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="10" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>798</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="10" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>774</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="10" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>805</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="10" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>809</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="10" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="C189" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="11" t="s">
+      <c r="C189" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="10" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>817</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="10" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>821</v>
       </c>
       <c r="C191" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="10" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>825</v>
       </c>
       <c r="C192" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="10" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>829</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="10" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="10" t="s">
+      <c r="A194" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>833</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E194" s="10" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>837</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="10" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>842</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D196" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" s="10" t="s">
         <v>843</v>
       </c>
-      <c r="E196" s="11" t="s">
+      <c r="E196" s="10" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>846</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="10" t="s">
         <v>847</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="E197" s="10" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>850</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D198" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="E198" s="11" t="s">
+      <c r="E198" s="10" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>854</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="E199" s="10" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="9" t="s">
         <v>857</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>858</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D200" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D200" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="E200" s="11" t="s">
+      <c r="E200" s="10" t="s">
         <v>860</v>
       </c>
     </row>
